--- a/downloaded_files/SBES369_Lecture-35719.xlsx
+++ b/downloaded_files/SBES369_Lecture-35719.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Habiba Walid Ahmed Ibraheem Hammouda</x:t>
   </x:si>
   <x:si>
-    <x:t>1210218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حمزة ايمن محي الدين الغنيمي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamza Ayman Mohyeldin Elghonemy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210219</x:t>
   </x:si>
   <x:si>
@@ -130,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Omr Khaled Seif Allah Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد محمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid Mohamed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210273</x:t>
@@ -326,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -813,7 +795,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6686460648</x:v>
+        <x:v>45906.6649821412</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6649821412</x:v>
+        <x:v>45906.4145591782</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4145591782</x:v>
+        <x:v>45906.4251377315</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4251377315</x:v>
+        <x:v>45906.420550463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.420550463</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.4173040509</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4173040509</x:v>
+        <x:v>45909.5011207986</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6758109954</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.5011207986</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.6956971875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6956971875</x:v>
+        <x:v>45906.4208004282</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4208004282</x:v>
+        <x:v>45906.6780194444</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1278,70 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45906.4152550116</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.6780194444</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES369_Lecture-35719.xlsx
+++ b/downloaded_files/SBES369_Lecture-35719.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,24 +42,6 @@
     <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
-    <x:t>1210129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باسل أحمد حماد الشحات</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bassel ahmed hammad el shahat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبة وليد أحمد ابراهيم حمودة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Walid Ahmed Ibraheem Hammouda</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210219</x:t>
   </x:si>
   <x:si>
@@ -87,15 +69,6 @@
     <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
   </x:si>
   <x:si>
-    <x:t>1210246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>طارق وليد فتحي محمد عارف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220121</x:t>
   </x:si>
   <x:si>
@@ -123,13 +96,13 @@
     <x:t>Omr Khaled Seif Allah Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو ياسر سيد محمود دومة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Yasser Sayed Mahmoud</x:t>
+    <x:t>1210269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mohamed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4220132</x:t>
@@ -150,15 +123,6 @@
     <x:t>Malak Ahmed Hosny</x:t>
   </x:si>
   <x:si>
-    <x:t>1210085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ميار ايمن عبد السلام ابراهيم خفاجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210163</x:t>
   </x:si>
   <x:si>
@@ -166,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Nada Omar Saleh Mohammad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد محمد عوض حسن اللقانى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yousef ahmed mohamed awad hassan ellakany</x:t>
   </x:si>
   <x:si>
     <x:t>2220010</x:t>
@@ -308,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -731,7 +686,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.666002662</x:v>
+        <x:v>45906.6649821412</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -763,7 +718,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6658396644</x:v>
+        <x:v>45906.4145591782</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -795,7 +750,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6649821412</x:v>
+        <x:v>45906.4251377315</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -827,7 +782,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4145591782</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4251377315</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.420550463</x:v>
+        <x:v>45906.4173040509</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45927.4145026273</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4173040509</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.5011207986</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1038,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45906.6780194444</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1100,166 +1055,6 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45906.6956971875</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45906.4148792014</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45906.4208004282</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45906.4152550116</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45906.6780194444</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES369_Lecture-35719.xlsx
+++ b/downloaded_files/SBES369_Lecture-35719.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
+    <x:t>1210129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل أحمد حماد الشحات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bassel ahmed hammad el shahat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210219</x:t>
   </x:si>
   <x:si>
@@ -69,15 +78,6 @@
     <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
   </x:si>
   <x:si>
-    <x:t>4220121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه طارق عمر طلبه زايد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210148</x:t>
   </x:si>
   <x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Ghada Tarek Ali  El-Boghdady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ابراهيم محمد الحسينى مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED IBRAHIM MOHAMED ELHOSSEINI MORSI</x:t>
   </x:si>
   <x:si>
     <x:t>1210378</x:t>
@@ -263,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -573,7 +582,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.660625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.190625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -686,7 +695,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6649821412</x:v>
+        <x:v>45927.7851057523</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -718,7 +727,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4145591782</x:v>
+        <x:v>45906.6649821412</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -750,7 +759,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4251377315</x:v>
+        <x:v>45906.4145591782</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -782,7 +791,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45927.9463319792</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -942,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45927.8889855324</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6780194444</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1064,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45906.6780194444</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES369_Lecture-35719.xlsx
+++ b/downloaded_files/SBES369_Lecture-35719.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاليه طارق عمر طلبه زايد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210148</x:t>
@@ -272,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -823,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45929.6210126505</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4173040509</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4145026273</x:v>
+        <x:v>45906.4173040509</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45927.4145026273</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.8889855324</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5663584144</x:v>
+        <x:v>45927.8889855324</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4148792014</x:v>
+        <x:v>45906.5663584144</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45906.4148792014</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6780194444</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1105,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45906.6780194444</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES369_Lecture-35719.xlsx
+++ b/downloaded_files/SBES369_Lecture-35719.xlsx
@@ -78,15 +78,6 @@
     <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
   </x:si>
   <x:si>
-    <x:t>4220121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه طارق عمر طلبه زايد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210148</x:t>
   </x:si>
   <x:si>
@@ -130,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>MOHAMED IBRAHIM MOHAMED ELHOSSEINI MORSI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد بسطاوي احمد بسطاوى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210378</x:t>
@@ -832,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45929.6210126505</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.4173040509</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4173040509</x:v>
+        <x:v>45927.4145026273</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4145026273</x:v>
+        <x:v>45906.4144965625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4144965625</x:v>
+        <x:v>45927.8889855324</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.8889855324</x:v>
+        <x:v>45932.5161196759</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
